--- a/TBFileUpload/TB for trial of Software - Copy.xlsx
+++ b/TBFileUpload/TB for trial of Software - Copy.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Bellona\BellonaUtilities\Bellona\ClientFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE196DE-5AB6-4079-BFCD-9457C7BA4E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F81E76-4629-4D80-B0F9-7577B6958868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TB Aug 24" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TB Aug 24'!$A$7:$BI$140</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="388">
   <si>
     <t>* Amounts in inr</t>
   </si>
@@ -1227,6 +1228,18 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>Manpower</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard </t>
+  </si>
+  <si>
+    <t>Screen shot</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2627,7 @@
       <selection activeCell="D70" sqref="D70"/>
       <selection pane="topRight" activeCell="D70" sqref="D70"/>
       <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -27871,4 +27884,40 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB995D23-C7A2-4611-A2C9-D6C1AF4F6A08}">
+  <dimension ref="B3:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>